--- a/7990/Exercise_regression_soln.xlsx
+++ b/7990/Exercise_regression_soln.xlsx
@@ -1,46 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hkbuhk-my.sharepoint.com/personal/ericluzhang_hkbu_edu_hk/Documents/course/2022-2023/COMP7990/Material_datamining/exercises/Regression/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_5FE63799D86D664BDB88D679291F972B331A0BDB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F3C0287-1F7E-C040-9634-89212F1AA4F2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>Height (m)</t>
   </si>
   <si>
     <t>Weight (kg)</t>
+  </si>
+  <si>
+    <t>min(new)</t>
+  </si>
+  <si>
+    <t>max(new)</t>
+  </si>
+  <si>
+    <t>mean (Height)</t>
+  </si>
+  <si>
+    <t>mean (Weight)</t>
+  </si>
+  <si>
+    <t>Normalized Height</t>
   </si>
   <si>
     <t>x_i-min</t>
@@ -50,21 +44,6 @@
   </si>
   <si>
     <t>max(new)-min(new)</t>
-  </si>
-  <si>
-    <t>min(new)</t>
-  </si>
-  <si>
-    <t>Normalized Height</t>
-  </si>
-  <si>
-    <t>Normalized Weight</t>
-  </si>
-  <si>
-    <t>mean (Height)</t>
-  </si>
-  <si>
-    <t>mean (Weight)</t>
   </si>
   <si>
     <t>x(i)-x_bar</t>
@@ -85,6 +64,9 @@
     <t>theta_0</t>
   </si>
   <si>
+    <t>Normalized Weight</t>
+  </si>
+  <si>
     <t>Residuals</t>
   </si>
   <si>
@@ -96,38 +78,378 @@
   <si>
     <t>Residual</t>
   </si>
-  <si>
-    <t>max(new)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -137,59 +459,301 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -206,24 +770,68 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -239,19 +847,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip r:embed="rId1">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -273,10 +875,10 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="3152775" y="1038225"/>
-          <a:ext cx="3124200" cy="352425"/>
+          <a:off x="3606800" y="838200"/>
+          <a:ext cx="3387725" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -308,23 +910,17 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>17231</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="TextBox 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="4" name="TextBox 3"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="14258925" y="133350"/>
-              <a:ext cx="6486525" cy="1131656"/>
+              <a:off x="16795750" y="133350"/>
+              <a:ext cx="7699375" cy="931545"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -431,7 +1027,6 @@
               </a:lvl9pPr>
             </a:lstStyle>
             <a:p>
-              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -758,16 +1353,16 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
+      <mc:Fallback>
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="14258925" y="133350"/>
-              <a:ext cx="6486525" cy="1131656"/>
+              <a:off x="16795750" y="133350"/>
+              <a:ext cx="7699375" cy="931545"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -874,55 +1469,252 @@
               </a:lvl9pPr>
             </a:lstStyle>
             <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="en-US" sz="3200" i="0">
+              <a:r>
+                <a:rPr lang="en-US" sz="3200">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝜃_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="3200" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>1=(∑▒〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="3200" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>(𝑥^((𝑖) )−𝑥 ̅)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="3200" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>(𝑦^((</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="3200" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑖) )−</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="3200" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑦 ̅)〗)/(∑▒〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="3200" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>(𝑥^((𝑖) )−𝑥 ̅)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="3200" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>〗^2 )</a:t>
+                <a:t>𝜃</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200" b="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200" b="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>▒</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> ̅</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200" b="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200" b="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑦</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200" b="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑦</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> ̅</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200" b="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200" b="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200" b="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200" b="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>▒</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> ̅</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200" b="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200" b="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="3200"/>
             </a:p>
@@ -945,23 +1737,17 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>93100</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="TextBox 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="5" name="TextBox 4"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="16884650" y="1648532"/>
-              <a:ext cx="4457700" cy="492443"/>
+              <a:off x="20253325" y="1448435"/>
+              <a:ext cx="4902200" cy="473075"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1195,16 +1981,16 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
+      <mc:Fallback>
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="16884650" y="1648532"/>
-              <a:ext cx="4457700" cy="492443"/>
+              <a:off x="20253325" y="1448435"/>
+              <a:ext cx="4902200" cy="473075"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1312,41 +2098,65 @@
             </a:lstStyle>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="3200" i="0">
+                <a:rPr lang="en-US" sz="3200">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝜃_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="3200" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>0=</a:t>
+                <a:t>𝜃</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200" b="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200" b="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="3200"/>
                 <a:t> </a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" sz="3200" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑦 ̅</a:t>
+                <a:rPr lang="en-US" sz="3200" b="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑦</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> ̅</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="3200"/>
                 <a:t>-</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" sz="3200" i="0">
+                <a:rPr lang="en-US" sz="3200">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝜃_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="3200" i="0">
+                <a:t>𝜃</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>1</a:t>
@@ -1356,10 +2166,16 @@
                 <a:t>*</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" sz="3200" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑥 ̅</a:t>
+                <a:rPr lang="en-US" sz="3200" b="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="3200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> ̅</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="3200"/>
             </a:p>
@@ -1415,7 +2231,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1450,7 +2266,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1624,37 +2440,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" customWidth="1"/>
-    <col min="5" max="5" width="35.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23.8333333333333" customWidth="1"/>
+    <col min="3" max="3" width="27.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="26.1666666666667" customWidth="1"/>
+    <col min="5" max="5" width="35.1666666666667" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.3333333333333" customWidth="1"/>
     <col min="9" max="9" width="27" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="12" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="16.5" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1668,7 +2480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="16.5" spans="1:8">
       <c r="A2" s="3">
         <v>1.86</v>
       </c>
@@ -1676,13 +2488,13 @@
         <v>85</v>
       </c>
       <c r="G2" s="3">
-        <v>4.0659999999999998</v>
+        <v>4.066</v>
       </c>
       <c r="H2" s="4">
         <v>4.181</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="16.5" spans="1:8">
       <c r="A3" s="3">
         <v>1.55</v>
       </c>
@@ -1696,7 +2508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="16.5" spans="1:8">
       <c r="A4" s="3">
         <v>1.62</v>
       </c>
@@ -1704,13 +2516,13 @@
         <v>55</v>
       </c>
       <c r="G4" s="3">
-        <v>2.4660000000000002</v>
+        <v>2.466</v>
       </c>
       <c r="H4" s="4">
-        <v>2.5449999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>2.545</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:8">
       <c r="A5" s="3">
         <v>1.95</v>
       </c>
@@ -1718,13 +2530,13 @@
         <v>92</v>
       </c>
       <c r="G5" s="3">
-        <v>4.6660000000000004</v>
+        <v>4.666</v>
       </c>
       <c r="H5" s="4">
-        <v>4.5629999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>4.563</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:8">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1738,7 +2550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="16.5" spans="1:8">
       <c r="A7" s="3">
         <v>1.77</v>
       </c>
@@ -1746,27 +2558,27 @@
         <v>74</v>
       </c>
       <c r="G7" s="3">
-        <v>3.4660000000000002</v>
+        <v>3.466</v>
       </c>
       <c r="H7" s="4">
         <v>3.581</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1782,23 +2594,23 @@
         <v>3.645</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
         <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -1822,14 +2634,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13">
         <f>A2-1.55</f>
-        <v>0.31000000000000005</v>
+        <v>0.31</v>
       </c>
       <c r="B13">
         <f>2-1.55</f>
-        <v>0.44999999999999996</v>
+        <v>0.45</v>
       </c>
       <c r="C13">
         <f>5-2</f>
@@ -1840,41 +2652,41 @@
       </c>
       <c r="E13">
         <f>ROUNDDOWN(A13/B13*C13+D13,3)</f>
-        <v>4.0659999999999998</v>
+        <v>4.066</v>
       </c>
       <c r="G13">
         <f>G2-G10</f>
-        <v>0.45599999999999996</v>
+        <v>0.456</v>
       </c>
       <c r="H13">
         <f>H2-H10</f>
-        <v>0.53600000000000003</v>
+        <v>0.536</v>
       </c>
       <c r="I13">
         <f>G13*H13</f>
-        <v>0.24441599999999999</v>
+        <v>0.244416</v>
       </c>
       <c r="J13">
         <f>G13^2</f>
-        <v>0.20793599999999995</v>
+        <v>0.207936</v>
       </c>
       <c r="K13">
         <f>SUM(I13:I18)/SUM(J13:J18)</f>
-        <v>0.97723145760807406</v>
+        <v>0.977231457608074</v>
       </c>
       <c r="L13">
         <f>H10-K13*G10</f>
-        <v>0.11719443803485285</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.117194438034853</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <f t="shared" ref="A14:A18" si="0">A3-1.55</f>
         <v>0</v>
       </c>
       <c r="B14">
         <f t="shared" ref="B14:B18" si="1">2-1.55</f>
-        <v>0.44999999999999996</v>
+        <v>0.45</v>
       </c>
       <c r="C14">
         <f t="shared" ref="C14:C18" si="2">5-2</f>
@@ -1889,7 +2701,7 @@
       </c>
       <c r="G14">
         <f>G3-G10</f>
-        <v>-1.6099999999999999</v>
+        <v>-1.61</v>
       </c>
       <c r="H14">
         <f>H3-H10</f>
@@ -1901,17 +2713,17 @@
       </c>
       <c r="J14">
         <f t="shared" ref="J14:J18" si="5">G14^2</f>
-        <v>2.5920999999999994</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2.5921</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>7.0000000000000062E-2</v>
+        <v>0.0700000000000001</v>
       </c>
       <c r="B15">
         <f t="shared" si="1"/>
-        <v>0.44999999999999996</v>
+        <v>0.45</v>
       </c>
       <c r="C15">
         <f t="shared" si="2"/>
@@ -1922,33 +2734,33 @@
       </c>
       <c r="E15">
         <f t="shared" si="3"/>
-        <v>2.4660000000000002</v>
+        <v>2.466</v>
       </c>
       <c r="G15">
         <f>G4-G10</f>
-        <v>-1.1439999999999997</v>
+        <v>-1.144</v>
       </c>
       <c r="H15">
         <f>H4-H10</f>
-        <v>-1.1000000000000001</v>
+        <v>-1.1</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>1.2583999999999997</v>
+        <v>1.2584</v>
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
-        <v>1.3087359999999992</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1.308736</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>0.39999999999999991</v>
+        <v>0.4</v>
       </c>
       <c r="B16">
         <f t="shared" si="1"/>
-        <v>0.44999999999999996</v>
+        <v>0.45</v>
       </c>
       <c r="C16">
         <f t="shared" si="2"/>
@@ -1959,33 +2771,33 @@
       </c>
       <c r="E16">
         <f t="shared" si="3"/>
-        <v>4.6660000000000004</v>
+        <v>4.666</v>
       </c>
       <c r="G16">
         <f>G5-G10</f>
-        <v>1.0560000000000005</v>
+        <v>1.056</v>
       </c>
       <c r="H16">
         <f>H5-H10</f>
-        <v>0.91799999999999971</v>
+        <v>0.918</v>
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
-        <v>0.96940800000000016</v>
+        <v>0.969408</v>
       </c>
       <c r="J16">
         <f t="shared" si="5"/>
-        <v>1.115136000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.115136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
+        <v>0.45</v>
       </c>
       <c r="B17">
         <f t="shared" si="1"/>
-        <v>0.44999999999999996</v>
+        <v>0.45</v>
       </c>
       <c r="C17">
         <f t="shared" si="2"/>
@@ -2000,7 +2812,7 @@
       </c>
       <c r="G17">
         <f>G6-G10</f>
-        <v>1.3900000000000001</v>
+        <v>1.39</v>
       </c>
       <c r="H17">
         <f>H6-H10</f>
@@ -2008,21 +2820,21 @@
       </c>
       <c r="I17">
         <f t="shared" si="4"/>
-        <v>1.8834500000000001</v>
+        <v>1.88345</v>
       </c>
       <c r="J17">
         <f t="shared" si="5"/>
-        <v>1.9321000000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.9321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>0.21999999999999997</v>
+        <v>0.22</v>
       </c>
       <c r="B18">
         <f t="shared" si="1"/>
-        <v>0.44999999999999996</v>
+        <v>0.45</v>
       </c>
       <c r="C18">
         <f t="shared" si="2"/>
@@ -2033,48 +2845,48 @@
       </c>
       <c r="E18">
         <f t="shared" si="3"/>
-        <v>3.4660000000000002</v>
+        <v>3.466</v>
       </c>
       <c r="G18">
         <f>G7-G10</f>
-        <v>-0.14399999999999968</v>
+        <v>-0.144</v>
       </c>
       <c r="H18">
         <f>H7-H10</f>
-        <v>-6.4000000000000057E-2</v>
+        <v>-0.0640000000000001</v>
       </c>
       <c r="I18">
         <f t="shared" si="4"/>
-        <v>9.2159999999999881E-3</v>
+        <v>0.00921599999999999</v>
       </c>
       <c r="J18">
         <f t="shared" si="5"/>
-        <v>2.0735999999999907E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.0207359999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
         <v>2</v>
       </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>5</v>
-      </c>
       <c r="E21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="1:5">
       <c r="A22">
         <f>B2-45</f>
         <v>40</v>
@@ -2093,7 +2905,7 @@
         <v>4.181</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" ht="16.5" spans="1:10">
       <c r="A23">
         <f t="shared" ref="A23:A27" si="6">B3-45</f>
         <v>0</v>
@@ -2112,19 +2924,19 @@
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5" spans="1:10">
       <c r="A24">
         <f t="shared" si="6"/>
         <v>10</v>
@@ -2140,21 +2952,21 @@
       </c>
       <c r="E24">
         <f t="shared" si="7"/>
-        <v>2.5449999999999999</v>
+        <v>2.545</v>
       </c>
       <c r="H24" s="3">
         <f>L13+K13*G2</f>
-        <v>4.0906175446692821</v>
+        <v>4.09061754466928</v>
       </c>
       <c r="I24" s="4">
         <v>4.181</v>
       </c>
       <c r="J24">
         <f>ABS(H24-I24)</f>
-        <v>9.0382455330717981E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0.090382455330718</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" spans="1:10">
       <c r="A25">
         <f t="shared" si="6"/>
         <v>47</v>
@@ -2170,21 +2982,21 @@
       </c>
       <c r="E25">
         <f t="shared" si="7"/>
-        <v>4.5629999999999997</v>
+        <v>4.563</v>
       </c>
       <c r="H25" s="3">
         <f>L13+K13*G3</f>
-        <v>2.071657353251001</v>
+        <v>2.071657353251</v>
       </c>
       <c r="I25" s="4">
         <v>2</v>
       </c>
       <c r="J25">
         <f t="shared" ref="J25:J29" si="8">ABS(H25-I25)</f>
-        <v>7.1657353251000977E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0.071657353251001</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="1:10">
       <c r="A26">
         <f t="shared" si="6"/>
         <v>55</v>
@@ -2204,17 +3016,17 @@
       </c>
       <c r="H26" s="3">
         <f>L13+K13*G4</f>
-        <v>2.5270472124963637</v>
+        <v>2.52704721249636</v>
       </c>
       <c r="I26" s="4">
-        <v>2.5449999999999999</v>
+        <v>2.545</v>
       </c>
       <c r="J26">
         <f t="shared" si="8"/>
-        <v>1.7952787503636269E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0.0179527875036363</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" spans="1:10">
       <c r="A27">
         <f t="shared" si="6"/>
         <v>29</v>
@@ -2234,45 +3046,316 @@
       </c>
       <c r="H27" s="3">
         <f>L13+K13*G5</f>
-        <v>4.6769564192341271</v>
+        <v>4.67695641923413</v>
       </c>
       <c r="I27" s="4">
-        <v>4.5629999999999997</v>
+        <v>4.563</v>
       </c>
       <c r="J27">
         <f t="shared" si="8"/>
-        <v>0.11395641923412736</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0.113956419234127</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5" spans="8:10">
       <c r="H28" s="3">
         <f>L13+K13*G6</f>
-        <v>5.0033517260752234</v>
+        <v>5.00335172607522</v>
       </c>
       <c r="I28" s="4">
         <v>5</v>
       </c>
       <c r="J28">
         <f t="shared" si="8"/>
-        <v>3.3517260752233824E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0.00335172607522338</v>
+      </c>
+    </row>
+    <row r="29" ht="16.5" spans="8:10">
       <c r="H29" s="3">
         <f>L13+K13*G7</f>
-        <v>3.5042786701044379</v>
+        <v>3.50427867010444</v>
       </c>
       <c r="I29" s="4">
         <v>3.581</v>
       </c>
       <c r="J29">
         <f t="shared" si="8"/>
-        <v>7.6721329895562018E-2</v>
+        <v>0.076721329895562</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32">
+        <f>A2-A3</f>
+        <v>0.31</v>
+      </c>
+      <c r="B32">
+        <f>A6-A3</f>
+        <v>0.45</v>
+      </c>
+      <c r="C32">
+        <f>5-2</f>
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <f>A32/B32*C32+D32</f>
+        <v>4.06666666666667</v>
+      </c>
+      <c r="G32">
+        <f>G2-G10</f>
+        <v>0.456</v>
+      </c>
+      <c r="H32">
+        <f>H2-H10</f>
+        <v>0.536</v>
+      </c>
+      <c r="I32">
+        <f>G32*H32</f>
+        <v>0.244416</v>
+      </c>
+      <c r="J32">
+        <f>G32^2</f>
+        <v>0.207936</v>
+      </c>
+      <c r="K32">
+        <f>SUM(I32:I37)/SUM(J32:J37)</f>
+        <v>0.977231457608074</v>
+      </c>
+      <c r="L32">
+        <f>H10-K32*G10</f>
+        <v>0.117194438034853</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <f>A3-A3</f>
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <f>A6-A3</f>
+        <v>0.45</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:C38" si="9">5-2</f>
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <f>A33/B33*C33+D33</f>
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <f>G3-G10</f>
+        <v>-1.61</v>
+      </c>
+      <c r="H33">
+        <f>H3-H10</f>
+        <v>-1.645</v>
+      </c>
+      <c r="I33">
+        <f>G33*H33</f>
+        <v>2.64845</v>
+      </c>
+      <c r="J33">
+        <f>G33^2</f>
+        <v>2.5921</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <f>A4-A3</f>
+        <v>0.0700000000000001</v>
+      </c>
+      <c r="B34">
+        <f>A6-A3</f>
+        <v>0.45</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <f>A34/B34*C34+D34</f>
+        <v>2.46666666666667</v>
+      </c>
+      <c r="G34">
+        <f>G4-G10</f>
+        <v>-1.144</v>
+      </c>
+      <c r="H34">
+        <f>H4-H10</f>
+        <v>-1.1</v>
+      </c>
+      <c r="I34">
+        <f>G34*H34</f>
+        <v>1.2584</v>
+      </c>
+      <c r="J34">
+        <f>G34^2</f>
+        <v>1.308736</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <f>A5-A3</f>
+        <v>0.4</v>
+      </c>
+      <c r="B35">
+        <f>A6-A3</f>
+        <v>0.45</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <f>A35/B35*C35+D35</f>
+        <v>4.66666666666667</v>
+      </c>
+      <c r="G35">
+        <f>G5-G10</f>
+        <v>1.056</v>
+      </c>
+      <c r="H35">
+        <f>H5-H10</f>
+        <v>0.918</v>
+      </c>
+      <c r="I35">
+        <f>G35*H35</f>
+        <v>0.969408</v>
+      </c>
+      <c r="J35">
+        <f>G35^2</f>
+        <v>1.115136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <f>A6-A3</f>
+        <v>0.45</v>
+      </c>
+      <c r="B36">
+        <f>A6-A3</f>
+        <v>0.45</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <f>A36/B36*C36+D36</f>
+        <v>5</v>
+      </c>
+      <c r="G36">
+        <f>G6-G10</f>
+        <v>1.39</v>
+      </c>
+      <c r="H36">
+        <f>H6-H10</f>
+        <v>1.355</v>
+      </c>
+      <c r="I36">
+        <f>G36*H36</f>
+        <v>1.88345</v>
+      </c>
+      <c r="J36">
+        <f>G36^2</f>
+        <v>1.9321</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
+        <f>A7-A3</f>
+        <v>0.22</v>
+      </c>
+      <c r="B37">
+        <f>A6-A3</f>
+        <v>0.45</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <f>A37/B37*C37+D37</f>
+        <v>3.46666666666667</v>
+      </c>
+      <c r="G37">
+        <f>G7-G10</f>
+        <v>-0.144</v>
+      </c>
+      <c r="H37">
+        <f>H7-H10</f>
+        <v>-0.0640000000000001</v>
+      </c>
+      <c r="I37">
+        <f>G37*H37</f>
+        <v>0.00921599999999999</v>
+      </c>
+      <c r="J37">
+        <f>G37^2</f>
+        <v>0.0207359999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>